--- a/data/template dataset.xlsx
+++ b/data/template dataset.xlsx
@@ -24,6 +24,34 @@
     <author>Author</author>
   </authors>
   <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1. Insectivores (all primarily earting arthropods, mollusks, worms etc.)
+2. Frugivores (do not know if there are any)
+3. Granivores
+4. Carnivores
+5. Omnivores (includes seed and insect feeders; seeds and vertebrates)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -117,7 +145,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-resident; partial; short dist.; long distance</t>
+resident; partial; migratory</t>
         </r>
       </text>
     </comment>
@@ -162,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +210,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -204,8 +245,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,9 +533,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -533,8 +582,43 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>